--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Serie</t>
   </si>
@@ -809,6 +809,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G259"/>
+  <dimension ref="A1:G260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2391,7 +2394,7 @@
         <v>86.28</v>
       </c>
       <c r="C110">
-        <v>88.27</v>
+        <v>88.26000000000001</v>
       </c>
       <c r="D110">
         <v>97.94</v>
@@ -2411,7 +2414,7 @@
         <v>79.64</v>
       </c>
       <c r="C111">
-        <v>87.37</v>
+        <v>87.36</v>
       </c>
       <c r="D111">
         <v>90.40000000000001</v>
@@ -2431,7 +2434,7 @@
         <v>89.86</v>
       </c>
       <c r="C112">
-        <v>86.88</v>
+        <v>86.87</v>
       </c>
       <c r="D112">
         <v>101.99</v>
@@ -2451,7 +2454,7 @@
         <v>85.39</v>
       </c>
       <c r="C113">
-        <v>86.48999999999999</v>
+        <v>86.48</v>
       </c>
       <c r="D113">
         <v>96.93000000000001</v>
@@ -2468,7 +2471,7 @@
         <v>86.39</v>
       </c>
       <c r="C114">
-        <v>87.01000000000001</v>
+        <v>87</v>
       </c>
       <c r="D114">
         <v>98.06</v>
@@ -2485,7 +2488,7 @@
         <v>87.77</v>
       </c>
       <c r="C115">
-        <v>88.94</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="D115">
         <v>99.63</v>
@@ -2502,7 +2505,7 @@
         <v>84.34</v>
       </c>
       <c r="C116">
-        <v>85.02</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="D116">
         <v>95.73</v>
@@ -2519,7 +2522,7 @@
         <v>88.42</v>
       </c>
       <c r="C117">
-        <v>89.8</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="D117">
         <v>100.36</v>
@@ -2536,7 +2539,7 @@
         <v>87.95</v>
       </c>
       <c r="C118">
-        <v>90.27</v>
+        <v>90.26000000000001</v>
       </c>
       <c r="D118">
         <v>99.84</v>
@@ -2553,7 +2556,7 @@
         <v>94.76000000000001</v>
       </c>
       <c r="C119">
-        <v>90.83</v>
+        <v>90.81999999999999</v>
       </c>
       <c r="D119">
         <v>107.56</v>
@@ -2570,7 +2573,7 @@
         <v>91.43000000000001</v>
       </c>
       <c r="C120">
-        <v>88.89</v>
+        <v>88.88</v>
       </c>
       <c r="D120">
         <v>103.78</v>
@@ -2587,7 +2590,7 @@
         <v>94.95</v>
       </c>
       <c r="C121">
-        <v>88.23999999999999</v>
+        <v>88.23</v>
       </c>
       <c r="D121">
         <v>107.78</v>
@@ -2621,7 +2624,7 @@
         <v>81.47</v>
       </c>
       <c r="C123">
-        <v>89.34999999999999</v>
+        <v>89.34</v>
       </c>
       <c r="D123">
         <v>92.48</v>
@@ -2638,7 +2641,7 @@
         <v>85.89</v>
       </c>
       <c r="C124">
-        <v>82.77</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="D124">
         <v>97.48999999999999</v>
@@ -2655,7 +2658,7 @@
         <v>89.31</v>
       </c>
       <c r="C125">
-        <v>90.64</v>
+        <v>90.63</v>
       </c>
       <c r="D125">
         <v>101.38</v>
@@ -2672,7 +2675,7 @@
         <v>88.3</v>
       </c>
       <c r="C126">
-        <v>88.66</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="D126">
         <v>100.23</v>
@@ -2689,7 +2692,7 @@
         <v>90.27</v>
       </c>
       <c r="C127">
-        <v>91.44</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="D127">
         <v>102.47</v>
@@ -2706,7 +2709,7 @@
         <v>91.27</v>
       </c>
       <c r="C128">
-        <v>92.14</v>
+        <v>92.13</v>
       </c>
       <c r="D128">
         <v>103.6</v>
@@ -2723,7 +2726,7 @@
         <v>93.34</v>
       </c>
       <c r="C129">
-        <v>93.7</v>
+        <v>93.69</v>
       </c>
       <c r="D129">
         <v>105.95</v>
@@ -2740,7 +2743,7 @@
         <v>88.03</v>
       </c>
       <c r="C130">
-        <v>90.86</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="D130">
         <v>99.93000000000001</v>
@@ -2774,7 +2777,7 @@
         <v>94.66</v>
       </c>
       <c r="C132">
-        <v>91.73999999999999</v>
+        <v>91.73</v>
       </c>
       <c r="D132">
         <v>107.45</v>
@@ -2791,7 +2794,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C133">
-        <v>91.95999999999999</v>
+        <v>91.95</v>
       </c>
       <c r="D133">
         <v>111.82</v>
@@ -2808,7 +2811,7 @@
         <v>92.77</v>
       </c>
       <c r="C134">
-        <v>95.08</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="D134">
         <v>105.3</v>
@@ -2828,7 +2831,7 @@
         <v>82.94</v>
       </c>
       <c r="C135">
-        <v>90.43000000000001</v>
+        <v>90.42</v>
       </c>
       <c r="D135">
         <v>94.14</v>
@@ -2848,7 +2851,7 @@
         <v>97.93000000000001</v>
       </c>
       <c r="C136">
-        <v>93.5</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="D136">
         <v>111.16</v>
@@ -2868,7 +2871,7 @@
         <v>91.51000000000001</v>
       </c>
       <c r="C137">
-        <v>93.22</v>
+        <v>93.20999999999999</v>
       </c>
       <c r="D137">
         <v>103.87</v>
@@ -2908,7 +2911,7 @@
         <v>91.04000000000001</v>
       </c>
       <c r="C139">
-        <v>92.37</v>
+        <v>92.36</v>
       </c>
       <c r="D139">
         <v>103.34</v>
@@ -2928,7 +2931,7 @@
         <v>86.19</v>
       </c>
       <c r="C140">
-        <v>87.67</v>
+        <v>87.66</v>
       </c>
       <c r="D140">
         <v>97.83</v>
@@ -2968,7 +2971,7 @@
         <v>92.38</v>
       </c>
       <c r="C142">
-        <v>94.58</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="D142">
         <v>104.85</v>
@@ -2988,7 +2991,7 @@
         <v>96.56999999999999</v>
       </c>
       <c r="C143">
-        <v>94.37</v>
+        <v>94.36</v>
       </c>
       <c r="D143">
         <v>109.62</v>
@@ -3008,7 +3011,7 @@
         <v>97.45999999999999</v>
       </c>
       <c r="C144">
-        <v>94.33</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="D144">
         <v>110.63</v>
@@ -3028,7 +3031,7 @@
         <v>103.77</v>
       </c>
       <c r="C145">
-        <v>97.33</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="D145">
         <v>117.79</v>
@@ -3048,7 +3051,7 @@
         <v>93.91</v>
       </c>
       <c r="C146">
-        <v>95.37</v>
+        <v>95.36</v>
       </c>
       <c r="D146">
         <v>106.6</v>
@@ -3068,7 +3071,7 @@
         <v>90.18000000000001</v>
       </c>
       <c r="C147">
-        <v>94.26000000000001</v>
+        <v>94.25</v>
       </c>
       <c r="D147">
         <v>102.36</v>
@@ -3088,7 +3091,7 @@
         <v>100.09</v>
       </c>
       <c r="C148">
-        <v>96.09999999999999</v>
+        <v>96.09</v>
       </c>
       <c r="D148">
         <v>113.61</v>
@@ -3108,7 +3111,7 @@
         <v>95.31</v>
       </c>
       <c r="C149">
-        <v>97.38</v>
+        <v>97.37</v>
       </c>
       <c r="D149">
         <v>108.19</v>
@@ -3128,7 +3131,7 @@
         <v>97.58</v>
       </c>
       <c r="C150">
-        <v>96.81999999999999</v>
+        <v>96.81</v>
       </c>
       <c r="D150">
         <v>110.76</v>
@@ -3148,7 +3151,7 @@
         <v>94.43000000000001</v>
       </c>
       <c r="C151">
-        <v>95.92</v>
+        <v>95.91</v>
       </c>
       <c r="D151">
         <v>107.19</v>
@@ -3168,7 +3171,7 @@
         <v>91.2</v>
       </c>
       <c r="C152">
-        <v>93.43000000000001</v>
+        <v>93.42</v>
       </c>
       <c r="D152">
         <v>103.52</v>
@@ -3188,7 +3191,7 @@
         <v>98.22</v>
       </c>
       <c r="C153">
-        <v>97.86</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="D153">
         <v>111.49</v>
@@ -3208,7 +3211,7 @@
         <v>92.5</v>
       </c>
       <c r="C154">
-        <v>97.27</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="D154">
         <v>105</v>
@@ -3228,7 +3231,7 @@
         <v>101.42</v>
       </c>
       <c r="C155">
-        <v>97.54000000000001</v>
+        <v>97.53</v>
       </c>
       <c r="D155">
         <v>115.12</v>
@@ -3248,7 +3251,7 @@
         <v>100.21</v>
       </c>
       <c r="C156">
-        <v>97.95999999999999</v>
+        <v>97.95</v>
       </c>
       <c r="D156">
         <v>113.75</v>
@@ -3288,7 +3291,7 @@
         <v>99.87</v>
       </c>
       <c r="C158">
-        <v>101.26</v>
+        <v>101.25</v>
       </c>
       <c r="D158">
         <v>113.36</v>
@@ -3308,7 +3311,7 @@
         <v>92.47</v>
       </c>
       <c r="C159">
-        <v>99.89</v>
+        <v>99.88</v>
       </c>
       <c r="D159">
         <v>104.96</v>
@@ -3328,7 +3331,7 @@
         <v>102.76</v>
       </c>
       <c r="C160">
-        <v>100.69</v>
+        <v>100.68</v>
       </c>
       <c r="D160">
         <v>116.64</v>
@@ -3348,7 +3351,7 @@
         <v>96.81</v>
       </c>
       <c r="C161">
-        <v>97.12</v>
+        <v>97.11</v>
       </c>
       <c r="D161">
         <v>109.89</v>
@@ -3388,7 +3391,7 @@
         <v>96.66</v>
       </c>
       <c r="C163">
-        <v>99.06</v>
+        <v>99.05</v>
       </c>
       <c r="D163">
         <v>109.72</v>
@@ -3408,7 +3411,7 @@
         <v>100.1</v>
       </c>
       <c r="C164">
-        <v>101.5</v>
+        <v>101.49</v>
       </c>
       <c r="D164">
         <v>113.62</v>
@@ -3428,7 +3431,7 @@
         <v>100.98</v>
       </c>
       <c r="C165">
-        <v>101.03</v>
+        <v>101.02</v>
       </c>
       <c r="D165">
         <v>114.62</v>
@@ -3448,7 +3451,7 @@
         <v>95.38</v>
       </c>
       <c r="C166">
-        <v>99.89</v>
+        <v>99.88</v>
       </c>
       <c r="D166">
         <v>108.26</v>
@@ -3468,7 +3471,7 @@
         <v>104.05</v>
       </c>
       <c r="C167">
-        <v>100.63</v>
+        <v>100.62</v>
       </c>
       <c r="D167">
         <v>118.11</v>
@@ -3488,7 +3491,7 @@
         <v>104.12</v>
       </c>
       <c r="C168">
-        <v>101.6</v>
+        <v>101.59</v>
       </c>
       <c r="D168">
         <v>118.18</v>
@@ -3508,7 +3511,7 @@
         <v>105</v>
       </c>
       <c r="C169">
-        <v>99.42</v>
+        <v>99.41</v>
       </c>
       <c r="D169">
         <v>119.19</v>
@@ -3528,7 +3531,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C170">
-        <v>99.92</v>
+        <v>99.91</v>
       </c>
       <c r="D170">
         <v>111.81</v>
@@ -3568,7 +3571,7 @@
         <v>103.1</v>
       </c>
       <c r="C172">
-        <v>99.40000000000001</v>
+        <v>99.41</v>
       </c>
       <c r="D172">
         <v>118.13</v>
@@ -3588,7 +3591,7 @@
         <v>100.04</v>
       </c>
       <c r="C173">
-        <v>101.21</v>
+        <v>101.18</v>
       </c>
       <c r="D173">
         <v>111.87</v>
@@ -3608,7 +3611,7 @@
         <v>102.59</v>
       </c>
       <c r="C174">
-        <v>101.97</v>
+        <v>101.96</v>
       </c>
       <c r="D174">
         <v>114.84</v>
@@ -3648,7 +3651,7 @@
         <v>98.70999999999999</v>
       </c>
       <c r="C176">
-        <v>99.61</v>
+        <v>99.64</v>
       </c>
       <c r="D176">
         <v>111.12</v>
@@ -3668,7 +3671,7 @@
         <v>97.84999999999999</v>
       </c>
       <c r="C177">
-        <v>98.79000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D177">
         <v>112.86</v>
@@ -3708,7 +3711,7 @@
         <v>104.07</v>
       </c>
       <c r="C179">
-        <v>99.81</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="D179">
         <v>117.74</v>
@@ -3728,7 +3731,7 @@
         <v>100.31</v>
       </c>
       <c r="C180">
-        <v>98.7</v>
+        <v>98.69</v>
       </c>
       <c r="D180">
         <v>114.3</v>
@@ -3748,7 +3751,7 @@
         <v>105.67</v>
       </c>
       <c r="C181">
-        <v>100.28</v>
+        <v>100.26</v>
       </c>
       <c r="D181">
         <v>120.88</v>
@@ -3808,7 +3811,7 @@
         <v>103.53</v>
       </c>
       <c r="C184">
-        <v>99.13</v>
+        <v>99.14</v>
       </c>
       <c r="D184">
         <v>114.7</v>
@@ -3828,7 +3831,7 @@
         <v>99.95999999999999</v>
       </c>
       <c r="C185">
-        <v>101.4</v>
+        <v>101.38</v>
       </c>
       <c r="D185">
         <v>111.91</v>
@@ -3868,7 +3871,7 @@
         <v>101.45</v>
       </c>
       <c r="C187">
-        <v>103.92</v>
+        <v>103.91</v>
       </c>
       <c r="D187">
         <v>114.42</v>
@@ -3888,7 +3891,7 @@
         <v>99.16</v>
       </c>
       <c r="C188">
-        <v>100</v>
+        <v>99.97</v>
       </c>
       <c r="D188">
         <v>109.95</v>
@@ -3928,7 +3931,7 @@
         <v>99.06999999999999</v>
       </c>
       <c r="C190">
-        <v>100.81</v>
+        <v>100.8</v>
       </c>
       <c r="D190">
         <v>110.36</v>
@@ -3948,7 +3951,7 @@
         <v>104.24</v>
       </c>
       <c r="C191">
-        <v>101.12</v>
+        <v>101.1</v>
       </c>
       <c r="D191">
         <v>117.2</v>
@@ -3988,7 +3991,7 @@
         <v>104.93</v>
       </c>
       <c r="C193">
-        <v>99.42</v>
+        <v>99.44</v>
       </c>
       <c r="D193">
         <v>116.8</v>
@@ -4008,7 +4011,7 @@
         <v>96.95</v>
       </c>
       <c r="C194">
-        <v>99.79000000000001</v>
+        <v>99.81</v>
       </c>
       <c r="D194">
         <v>109.58</v>
@@ -4028,7 +4031,7 @@
         <v>96.88</v>
       </c>
       <c r="C195">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="D195">
         <v>108.7</v>
@@ -4048,7 +4051,7 @@
         <v>107.11</v>
       </c>
       <c r="C196">
-        <v>102.56</v>
+        <v>102.55</v>
       </c>
       <c r="D196">
         <v>119.02</v>
@@ -4068,7 +4071,7 @@
         <v>97.69</v>
       </c>
       <c r="C197">
-        <v>98.64</v>
+        <v>98.65000000000001</v>
       </c>
       <c r="D197">
         <v>108.03</v>
@@ -4088,7 +4091,7 @@
         <v>101.24</v>
       </c>
       <c r="C198">
-        <v>99.41</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D198">
         <v>112.08</v>
@@ -4108,7 +4111,7 @@
         <v>97.15000000000001</v>
       </c>
       <c r="C199">
-        <v>99.29000000000001</v>
+        <v>99.31</v>
       </c>
       <c r="D199">
         <v>110.25</v>
@@ -4128,13 +4131,13 @@
         <v>96.56</v>
       </c>
       <c r="C200">
-        <v>98.28</v>
+        <v>98.22</v>
       </c>
       <c r="D200">
         <v>107.84</v>
       </c>
       <c r="E200">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="F200">
         <v>106.53</v>
@@ -4148,7 +4151,7 @@
         <v>99.08</v>
       </c>
       <c r="C201">
-        <v>98.23999999999999</v>
+        <v>98.23</v>
       </c>
       <c r="D201">
         <v>110.23</v>
@@ -4208,7 +4211,7 @@
         <v>102.24</v>
       </c>
       <c r="C204">
-        <v>99.69</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D204">
         <v>113.35</v>
@@ -4282,7 +4285,7 @@
         <v>97.31</v>
       </c>
       <c r="C208">
-        <v>91.22</v>
+        <v>91.23999999999999</v>
       </c>
       <c r="E208">
         <v>104.26</v>
@@ -4299,7 +4302,7 @@
         <v>92.76000000000001</v>
       </c>
       <c r="C209">
-        <v>97.34</v>
+        <v>97.33</v>
       </c>
       <c r="E209">
         <v>91.47</v>
@@ -4316,7 +4319,7 @@
         <v>100.1</v>
       </c>
       <c r="C210">
-        <v>97.68000000000001</v>
+        <v>97.69</v>
       </c>
       <c r="E210">
         <v>101.41</v>
@@ -4333,10 +4336,10 @@
         <v>95.56</v>
       </c>
       <c r="C211">
-        <v>98.04000000000001</v>
+        <v>98.03</v>
       </c>
       <c r="E211">
-        <v>94.25</v>
+        <v>94.26000000000001</v>
       </c>
       <c r="F211">
         <v>107.28</v>
@@ -4350,10 +4353,10 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C212">
-        <v>100.1</v>
+        <v>100.07</v>
       </c>
       <c r="E212">
-        <v>96.53</v>
+        <v>96.54000000000001</v>
       </c>
       <c r="F212">
         <v>110.04</v>
@@ -4384,7 +4387,7 @@
         <v>98.33</v>
       </c>
       <c r="C214">
-        <v>100.86</v>
+        <v>100.84</v>
       </c>
       <c r="E214">
         <v>92.77</v>
@@ -4435,7 +4438,7 @@
         <v>104.39</v>
       </c>
       <c r="C217">
-        <v>100.09</v>
+        <v>100.1</v>
       </c>
       <c r="E217">
         <v>96.64</v>
@@ -4452,7 +4455,7 @@
         <v>99.89</v>
       </c>
       <c r="C218">
-        <v>101.2</v>
+        <v>101.21</v>
       </c>
       <c r="E218">
         <v>98.79000000000001</v>
@@ -4466,7 +4469,7 @@
         <v>96.36</v>
       </c>
       <c r="C219">
-        <v>103.94</v>
+        <v>103.96</v>
       </c>
       <c r="E219">
         <v>91.79000000000001</v>
@@ -4480,7 +4483,7 @@
         <v>106.24</v>
       </c>
       <c r="C220">
-        <v>102.33</v>
+        <v>102.35</v>
       </c>
       <c r="E220">
         <v>101.55</v>
@@ -4494,7 +4497,7 @@
         <v>99.48999999999999</v>
       </c>
       <c r="C221">
-        <v>101.37</v>
+        <v>101.4</v>
       </c>
       <c r="E221">
         <v>100.11</v>
@@ -4511,7 +4514,7 @@
         <v>101.97</v>
       </c>
       <c r="E222">
-        <v>101.39</v>
+        <v>101.38</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4522,7 +4525,7 @@
         <v>100.6</v>
       </c>
       <c r="C223">
-        <v>103.11</v>
+        <v>103.13</v>
       </c>
       <c r="E223">
         <v>98.93000000000001</v>
@@ -4536,7 +4539,7 @@
         <v>99.88</v>
       </c>
       <c r="C224">
-        <v>102.06</v>
+        <v>101.96</v>
       </c>
       <c r="E224">
         <v>95.44</v>
@@ -4550,7 +4553,7 @@
         <v>102.76</v>
       </c>
       <c r="C225">
-        <v>101.36</v>
+        <v>101.34</v>
       </c>
       <c r="E225">
         <v>104.49</v>
@@ -4564,7 +4567,7 @@
         <v>95.97</v>
       </c>
       <c r="C226">
-        <v>100.51</v>
+        <v>100.5</v>
       </c>
       <c r="E226">
         <v>89.08</v>
@@ -4592,7 +4595,7 @@
         <v>106.55</v>
       </c>
       <c r="C228">
-        <v>104.62</v>
+        <v>104.59</v>
       </c>
       <c r="E228">
         <v>102.71</v>
@@ -4606,7 +4609,7 @@
         <v>107.88</v>
       </c>
       <c r="C229">
-        <v>103.05</v>
+        <v>103.03</v>
       </c>
       <c r="E229">
         <v>102.17</v>
@@ -4620,7 +4623,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C230">
-        <v>100.52</v>
+        <v>100.54</v>
       </c>
       <c r="E230">
         <v>100.96</v>
@@ -4634,7 +4637,7 @@
         <v>92.55</v>
       </c>
       <c r="C231">
-        <v>99.75</v>
+        <v>99.77</v>
       </c>
       <c r="E231">
         <v>89.17</v>
@@ -4648,7 +4651,7 @@
         <v>104.56</v>
       </c>
       <c r="C232">
-        <v>100.17</v>
+        <v>100.23</v>
       </c>
       <c r="E232">
         <v>103.76</v>
@@ -4662,7 +4665,7 @@
         <v>100.05</v>
       </c>
       <c r="C233">
-        <v>102.67</v>
+        <v>102.68</v>
       </c>
       <c r="E233">
         <v>97.47</v>
@@ -4676,7 +4679,7 @@
         <v>103.64</v>
       </c>
       <c r="C234">
-        <v>102.92</v>
+        <v>102.88</v>
       </c>
       <c r="E234">
         <v>101.36</v>
@@ -4690,7 +4693,7 @@
         <v>97.33</v>
       </c>
       <c r="C235">
-        <v>101.13</v>
+        <v>101.12</v>
       </c>
       <c r="E235">
         <v>95.08</v>
@@ -4704,10 +4707,10 @@
         <v>101.32</v>
       </c>
       <c r="C236">
-        <v>101.67</v>
+        <v>101.58</v>
       </c>
       <c r="E236">
-        <v>101.45</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4718,10 +4721,10 @@
         <v>104.11</v>
       </c>
       <c r="C237">
-        <v>103.1</v>
+        <v>103.08</v>
       </c>
       <c r="E237">
-        <v>97.73</v>
+        <v>97.67</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4732,7 +4735,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="C238">
-        <v>101.26</v>
+        <v>101.22</v>
       </c>
       <c r="E238">
         <v>93.33</v>
@@ -4746,7 +4749,7 @@
         <v>101.4</v>
       </c>
       <c r="C239">
-        <v>98.34999999999999</v>
+        <v>98.31999999999999</v>
       </c>
       <c r="E239">
         <v>99.88</v>
@@ -4760,10 +4763,10 @@
         <v>103.94</v>
       </c>
       <c r="C240">
-        <v>101.41</v>
+        <v>101.42</v>
       </c>
       <c r="E240">
-        <v>101</v>
+        <v>100.93</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4774,7 +4777,7 @@
         <v>110.85</v>
       </c>
       <c r="C241">
-        <v>104.83</v>
+        <v>104.84</v>
       </c>
       <c r="E241">
         <v>100.1</v>
@@ -4802,7 +4805,7 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C243">
-        <v>101.63</v>
+        <v>101.69</v>
       </c>
       <c r="E243">
         <v>95.05</v>
@@ -4816,7 +4819,7 @@
         <v>105.6</v>
       </c>
       <c r="C244">
-        <v>101</v>
+        <v>101.07</v>
       </c>
       <c r="E244">
         <v>103.52</v>
@@ -4830,10 +4833,10 @@
         <v>96.03</v>
       </c>
       <c r="C245">
-        <v>98.09</v>
+        <v>98.12</v>
       </c>
       <c r="E245">
-        <v>94.5</v>
+        <v>94.48</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4844,10 +4847,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="C246">
-        <v>98.34999999999999</v>
+        <v>98.31</v>
       </c>
       <c r="E246">
-        <v>93.61</v>
+        <v>93.59</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4858,10 +4861,10 @@
         <v>94.75</v>
       </c>
       <c r="C247">
-        <v>97.37</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="E247">
-        <v>87.61</v>
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4872,7 +4875,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C248">
-        <v>98.03</v>
+        <v>97.97</v>
       </c>
       <c r="E248">
         <v>97.40000000000001</v>
@@ -4886,7 +4889,7 @@
         <v>99.03</v>
       </c>
       <c r="C249">
-        <v>98.45</v>
+        <v>98.41</v>
       </c>
       <c r="E249">
         <v>98.55</v>
@@ -4900,7 +4903,7 @@
         <v>98.34999999999999</v>
       </c>
       <c r="C250">
-        <v>100.48</v>
+        <v>100.44</v>
       </c>
       <c r="E250">
         <v>96.01000000000001</v>
@@ -4914,7 +4917,7 @@
         <v>104.98</v>
       </c>
       <c r="C251">
-        <v>102.21</v>
+        <v>102.2</v>
       </c>
       <c r="E251">
         <v>103.42</v>
@@ -4928,7 +4931,7 @@
         <v>103.5</v>
       </c>
       <c r="C252">
-        <v>100.5</v>
+        <v>100.51</v>
       </c>
       <c r="E252">
         <v>102.75</v>
@@ -4942,7 +4945,7 @@
         <v>106.86</v>
       </c>
       <c r="C253">
-        <v>100.47</v>
+        <v>100.49</v>
       </c>
       <c r="E253">
         <v>104.91</v>
@@ -4956,7 +4959,7 @@
         <v>98.98999999999999</v>
       </c>
       <c r="C254">
-        <v>101.81</v>
+        <v>101.84</v>
       </c>
       <c r="E254">
         <v>98.34999999999999</v>
@@ -4970,7 +4973,7 @@
         <v>94.05</v>
       </c>
       <c r="C255">
-        <v>101.58</v>
+        <v>101.61</v>
       </c>
       <c r="E255">
         <v>93.04000000000001</v>
@@ -4984,7 +4987,7 @@
         <v>108.75</v>
       </c>
       <c r="C256">
-        <v>102.95</v>
+        <v>103.02</v>
       </c>
       <c r="E256">
         <v>110.88</v>
@@ -4998,7 +5001,7 @@
         <v>100.88</v>
       </c>
       <c r="C257">
-        <v>103.21</v>
+        <v>103.23</v>
       </c>
       <c r="E257">
         <v>101.58</v>
@@ -5012,10 +5015,10 @@
         <v>100.79</v>
       </c>
       <c r="C258">
-        <v>101.55</v>
+        <v>101.51</v>
       </c>
       <c r="E258">
-        <v>102.95</v>
+        <v>102.94</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5023,13 +5026,27 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>100.47</v>
+        <v>100.56</v>
       </c>
       <c r="C259">
-        <v>103.78</v>
+        <v>104.36</v>
       </c>
       <c r="E259">
         <v>103.17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260">
+        <v>102.63</v>
+      </c>
+      <c r="C260">
+        <v>103.38</v>
+      </c>
+      <c r="E260">
+        <v>106.08</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>Serie</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G260"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2817,7 +2820,7 @@
         <v>105.3</v>
       </c>
       <c r="E134">
-        <v>91.20999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F134">
         <v>109.64</v>
@@ -2891,7 +2894,7 @@
         <v>93.68000000000001</v>
       </c>
       <c r="C138">
-        <v>92.97</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="D138">
         <v>106.33</v>
@@ -2917,7 +2920,7 @@
         <v>103.34</v>
       </c>
       <c r="E139">
-        <v>91.42</v>
+        <v>91.41</v>
       </c>
       <c r="F139">
         <v>108.03</v>
@@ -2977,7 +2980,7 @@
         <v>104.85</v>
       </c>
       <c r="E142">
-        <v>95.93000000000001</v>
+        <v>95.92</v>
       </c>
       <c r="F142">
         <v>108.15</v>
@@ -2997,7 +3000,7 @@
         <v>109.62</v>
       </c>
       <c r="E143">
-        <v>96.11</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F143">
         <v>109.34</v>
@@ -3017,7 +3020,7 @@
         <v>110.63</v>
       </c>
       <c r="E144">
-        <v>98.29000000000001</v>
+        <v>98.28</v>
       </c>
       <c r="F144">
         <v>115.06</v>
@@ -3037,7 +3040,7 @@
         <v>117.79</v>
       </c>
       <c r="E145">
-        <v>99.88</v>
+        <v>99.87</v>
       </c>
       <c r="F145">
         <v>116.96</v>
@@ -3057,7 +3060,7 @@
         <v>106.6</v>
       </c>
       <c r="E146">
-        <v>94.26000000000001</v>
+        <v>94.25</v>
       </c>
       <c r="F146">
         <v>112.96</v>
@@ -3077,7 +3080,7 @@
         <v>102.36</v>
       </c>
       <c r="E147">
-        <v>93.81999999999999</v>
+        <v>93.72</v>
       </c>
       <c r="F147">
         <v>109.82</v>
@@ -3097,7 +3100,7 @@
         <v>113.61</v>
       </c>
       <c r="E148">
-        <v>107.22</v>
+        <v>107.2</v>
       </c>
       <c r="F148">
         <v>128</v>
@@ -3117,7 +3120,7 @@
         <v>108.19</v>
       </c>
       <c r="E149">
-        <v>97.7</v>
+        <v>97.69</v>
       </c>
       <c r="F149">
         <v>116.23</v>
@@ -3137,7 +3140,7 @@
         <v>110.76</v>
       </c>
       <c r="E150">
-        <v>102.91</v>
+        <v>102.9</v>
       </c>
       <c r="F150">
         <v>119.31</v>
@@ -3157,7 +3160,7 @@
         <v>107.19</v>
       </c>
       <c r="E151">
-        <v>100.32</v>
+        <v>100.31</v>
       </c>
       <c r="F151">
         <v>111.44</v>
@@ -3177,7 +3180,7 @@
         <v>103.52</v>
       </c>
       <c r="E152">
-        <v>100.66</v>
+        <v>100.65</v>
       </c>
       <c r="F152">
         <v>110.03</v>
@@ -3197,7 +3200,7 @@
         <v>111.49</v>
       </c>
       <c r="E153">
-        <v>105.23</v>
+        <v>105.22</v>
       </c>
       <c r="F153">
         <v>114.16</v>
@@ -3217,7 +3220,7 @@
         <v>105</v>
       </c>
       <c r="E154">
-        <v>93.81999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="F154">
         <v>104.1</v>
@@ -3237,7 +3240,7 @@
         <v>115.12</v>
       </c>
       <c r="E155">
-        <v>107.13</v>
+        <v>107.11</v>
       </c>
       <c r="F155">
         <v>119.51</v>
@@ -3257,7 +3260,7 @@
         <v>113.75</v>
       </c>
       <c r="E156">
-        <v>103.72</v>
+        <v>103.71</v>
       </c>
       <c r="F156">
         <v>116.92</v>
@@ -3271,13 +3274,13 @@
         <v>102.05</v>
       </c>
       <c r="C157">
-        <v>97.14</v>
+        <v>97.13</v>
       </c>
       <c r="D157">
         <v>115.84</v>
       </c>
       <c r="E157">
-        <v>105.38</v>
+        <v>105.37</v>
       </c>
       <c r="F157">
         <v>117.31</v>
@@ -3297,7 +3300,7 @@
         <v>113.36</v>
       </c>
       <c r="E158">
-        <v>101.86</v>
+        <v>101.85</v>
       </c>
       <c r="F158">
         <v>118.04</v>
@@ -3317,7 +3320,7 @@
         <v>104.96</v>
       </c>
       <c r="E159">
-        <v>91.5</v>
+        <v>91.48</v>
       </c>
       <c r="F159">
         <v>110.84</v>
@@ -3337,7 +3340,7 @@
         <v>116.64</v>
       </c>
       <c r="E160">
-        <v>99.72</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="F160">
         <v>123.12</v>
@@ -3357,7 +3360,7 @@
         <v>109.89</v>
       </c>
       <c r="E161">
-        <v>100.27</v>
+        <v>100.26</v>
       </c>
       <c r="F161">
         <v>118.91</v>
@@ -3371,13 +3374,13 @@
         <v>97.84999999999999</v>
       </c>
       <c r="C162">
-        <v>97.26000000000001</v>
+        <v>97.25</v>
       </c>
       <c r="D162">
         <v>111.07</v>
       </c>
       <c r="E162">
-        <v>102.65</v>
+        <v>102.64</v>
       </c>
       <c r="F162">
         <v>117.46</v>
@@ -3397,7 +3400,7 @@
         <v>109.72</v>
       </c>
       <c r="E163">
-        <v>99.28</v>
+        <v>99.26000000000001</v>
       </c>
       <c r="F163">
         <v>111.38</v>
@@ -3437,7 +3440,7 @@
         <v>114.62</v>
       </c>
       <c r="E165">
-        <v>105.4</v>
+        <v>105.39</v>
       </c>
       <c r="F165">
         <v>117.79</v>
@@ -3457,7 +3460,7 @@
         <v>108.26</v>
       </c>
       <c r="E166">
-        <v>92.26000000000001</v>
+        <v>92.25</v>
       </c>
       <c r="F166">
         <v>102.31</v>
@@ -3477,7 +3480,7 @@
         <v>118.11</v>
       </c>
       <c r="E167">
-        <v>104.18</v>
+        <v>104.17</v>
       </c>
       <c r="F167">
         <v>117.98</v>
@@ -3497,7 +3500,7 @@
         <v>118.18</v>
       </c>
       <c r="E168">
-        <v>104.3</v>
+        <v>104.29</v>
       </c>
       <c r="F168">
         <v>116.15</v>
@@ -3517,7 +3520,7 @@
         <v>119.19</v>
       </c>
       <c r="E169">
-        <v>102.07</v>
+        <v>102.06</v>
       </c>
       <c r="F169">
         <v>116.61</v>
@@ -3537,7 +3540,7 @@
         <v>111.81</v>
       </c>
       <c r="E170">
-        <v>100.6</v>
+        <v>100.59</v>
       </c>
       <c r="F170">
         <v>113.62</v>
@@ -3557,7 +3560,7 @@
         <v>107.25</v>
       </c>
       <c r="E171">
-        <v>93.37</v>
+        <v>93.44</v>
       </c>
       <c r="F171">
         <v>106.92</v>
@@ -3571,13 +3574,13 @@
         <v>103.1</v>
       </c>
       <c r="C172">
-        <v>99.41</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D172">
         <v>118.13</v>
       </c>
       <c r="E172">
-        <v>102.23</v>
+        <v>102.22</v>
       </c>
       <c r="F172">
         <v>125.12</v>
@@ -3597,7 +3600,7 @@
         <v>111.87</v>
       </c>
       <c r="E173">
-        <v>98.44</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="F173">
         <v>119.55</v>
@@ -3611,7 +3614,7 @@
         <v>102.59</v>
       </c>
       <c r="C174">
-        <v>101.96</v>
+        <v>101.95</v>
       </c>
       <c r="D174">
         <v>114.84</v>
@@ -3631,13 +3634,13 @@
         <v>99.23999999999999</v>
       </c>
       <c r="C175">
-        <v>101.56</v>
+        <v>101.57</v>
       </c>
       <c r="D175">
         <v>112.24</v>
       </c>
       <c r="E175">
-        <v>97.54000000000001</v>
+        <v>97.53</v>
       </c>
       <c r="F175">
         <v>110.74</v>
@@ -3657,7 +3660,7 @@
         <v>111.12</v>
       </c>
       <c r="E176">
-        <v>101.2</v>
+        <v>101.19</v>
       </c>
       <c r="F176">
         <v>113.72</v>
@@ -3677,7 +3680,7 @@
         <v>112.86</v>
       </c>
       <c r="E177">
-        <v>98.88</v>
+        <v>98.87</v>
       </c>
       <c r="F177">
         <v>111.5</v>
@@ -3697,7 +3700,7 @@
         <v>109.07</v>
       </c>
       <c r="E178">
-        <v>96.63</v>
+        <v>96.62</v>
       </c>
       <c r="F178">
         <v>105.44</v>
@@ -3717,7 +3720,7 @@
         <v>117.74</v>
       </c>
       <c r="E179">
-        <v>104.63</v>
+        <v>104.62</v>
       </c>
       <c r="F179">
         <v>118.95</v>
@@ -3737,7 +3740,7 @@
         <v>114.3</v>
       </c>
       <c r="E180">
-        <v>102.3</v>
+        <v>102.29</v>
       </c>
       <c r="F180">
         <v>116.87</v>
@@ -3771,7 +3774,7 @@
         <v>101.38</v>
       </c>
       <c r="C182">
-        <v>103.55</v>
+        <v>103.54</v>
       </c>
       <c r="D182">
         <v>118.76</v>
@@ -3797,7 +3800,7 @@
         <v>106.86</v>
       </c>
       <c r="E183">
-        <v>91.20999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F183">
         <v>106.99</v>
@@ -3877,7 +3880,7 @@
         <v>114.42</v>
       </c>
       <c r="E187">
-        <v>98.51000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F187">
         <v>111.86</v>
@@ -3891,7 +3894,7 @@
         <v>99.16</v>
       </c>
       <c r="C188">
-        <v>99.97</v>
+        <v>99.98</v>
       </c>
       <c r="D188">
         <v>109.95</v>
@@ -3917,7 +3920,7 @@
         <v>107.3</v>
       </c>
       <c r="E189">
-        <v>99.84999999999999</v>
+        <v>99.84</v>
       </c>
       <c r="F189">
         <v>115</v>
@@ -3931,13 +3934,13 @@
         <v>99.06999999999999</v>
       </c>
       <c r="C190">
-        <v>100.8</v>
+        <v>100.81</v>
       </c>
       <c r="D190">
         <v>110.36</v>
       </c>
       <c r="E190">
-        <v>98.34999999999999</v>
+        <v>98.34</v>
       </c>
       <c r="F190">
         <v>110.36</v>
@@ -3957,7 +3960,7 @@
         <v>117.2</v>
       </c>
       <c r="E191">
-        <v>102.33</v>
+        <v>102.32</v>
       </c>
       <c r="F191">
         <v>117.19</v>
@@ -3971,13 +3974,13 @@
         <v>100.96</v>
       </c>
       <c r="C192">
-        <v>98.61</v>
+        <v>98.63</v>
       </c>
       <c r="D192">
         <v>114.9</v>
       </c>
       <c r="E192">
-        <v>100.68</v>
+        <v>100.67</v>
       </c>
       <c r="F192">
         <v>115.82</v>
@@ -3991,13 +3994,13 @@
         <v>104.93</v>
       </c>
       <c r="C193">
-        <v>99.44</v>
+        <v>99.43000000000001</v>
       </c>
       <c r="D193">
         <v>116.8</v>
       </c>
       <c r="E193">
-        <v>107.3</v>
+        <v>107.29</v>
       </c>
       <c r="F193">
         <v>120.84</v>
@@ -4011,13 +4014,13 @@
         <v>96.95</v>
       </c>
       <c r="C194">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="D194">
         <v>109.58</v>
       </c>
       <c r="E194">
-        <v>98.03</v>
+        <v>98.02</v>
       </c>
       <c r="F194">
         <v>110.85</v>
@@ -4037,7 +4040,7 @@
         <v>108.7</v>
       </c>
       <c r="E195">
-        <v>95.16</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="F195">
         <v>107.81</v>
@@ -4051,13 +4054,13 @@
         <v>107.11</v>
       </c>
       <c r="C196">
-        <v>102.55</v>
+        <v>102.52</v>
       </c>
       <c r="D196">
         <v>119.02</v>
       </c>
       <c r="E196">
-        <v>103.79</v>
+        <v>103.78</v>
       </c>
       <c r="F196">
         <v>123.6</v>
@@ -4077,7 +4080,7 @@
         <v>108.03</v>
       </c>
       <c r="E197">
-        <v>98.26000000000001</v>
+        <v>98.25</v>
       </c>
       <c r="F197">
         <v>115.77</v>
@@ -4091,7 +4094,7 @@
         <v>101.24</v>
       </c>
       <c r="C198">
-        <v>99.40000000000001</v>
+        <v>99.41</v>
       </c>
       <c r="D198">
         <v>112.08</v>
@@ -4111,7 +4114,7 @@
         <v>97.15000000000001</v>
       </c>
       <c r="C199">
-        <v>99.31</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="D199">
         <v>110.25</v>
@@ -4131,13 +4134,13 @@
         <v>96.56</v>
       </c>
       <c r="C200">
-        <v>98.22</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="D200">
         <v>107.84</v>
       </c>
       <c r="E200">
-        <v>98.39</v>
+        <v>98.38</v>
       </c>
       <c r="F200">
         <v>106.53</v>
@@ -4151,13 +4154,13 @@
         <v>99.08</v>
       </c>
       <c r="C201">
-        <v>98.23</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="D201">
         <v>110.23</v>
       </c>
       <c r="E201">
-        <v>101.02</v>
+        <v>101.01</v>
       </c>
       <c r="F201">
         <v>114.23</v>
@@ -4171,13 +4174,13 @@
         <v>97.59</v>
       </c>
       <c r="C202">
-        <v>98.67</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="D202">
         <v>110.04</v>
       </c>
       <c r="E202">
-        <v>99.01000000000001</v>
+        <v>99</v>
       </c>
       <c r="F202">
         <v>110.27</v>
@@ -4191,13 +4194,13 @@
         <v>98.47</v>
       </c>
       <c r="C203">
-        <v>97.08</v>
+        <v>97.09</v>
       </c>
       <c r="D203">
         <v>108.51</v>
       </c>
       <c r="E203">
-        <v>96.47</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="F203">
         <v>109.19</v>
@@ -4211,13 +4214,13 @@
         <v>102.24</v>
       </c>
       <c r="C204">
-        <v>99.68000000000001</v>
+        <v>99.69</v>
       </c>
       <c r="D204">
         <v>113.35</v>
       </c>
       <c r="E204">
-        <v>100.91</v>
+        <v>100.9</v>
       </c>
       <c r="F204">
         <v>111.36</v>
@@ -4237,7 +4240,7 @@
         <v>117.18</v>
       </c>
       <c r="E205">
-        <v>102.2</v>
+        <v>102.19</v>
       </c>
       <c r="F205">
         <v>115.07</v>
@@ -4251,10 +4254,10 @@
         <v>96.33</v>
       </c>
       <c r="C206">
-        <v>98.63</v>
+        <v>98.62</v>
       </c>
       <c r="E206">
-        <v>94.29000000000001</v>
+        <v>94.28</v>
       </c>
       <c r="F206">
         <v>107.16</v>
@@ -4268,10 +4271,10 @@
         <v>87.91</v>
       </c>
       <c r="C207">
-        <v>94.37</v>
+        <v>94.36</v>
       </c>
       <c r="E207">
-        <v>89.93000000000001</v>
+        <v>89.92</v>
       </c>
       <c r="F207">
         <v>107.73</v>
@@ -4285,7 +4288,7 @@
         <v>97.31</v>
       </c>
       <c r="C208">
-        <v>91.23999999999999</v>
+        <v>91.20999999999999</v>
       </c>
       <c r="E208">
         <v>104.26</v>
@@ -4302,7 +4305,7 @@
         <v>92.76000000000001</v>
       </c>
       <c r="C209">
-        <v>97.33</v>
+        <v>97.31</v>
       </c>
       <c r="E209">
         <v>91.47</v>
@@ -4319,7 +4322,7 @@
         <v>100.1</v>
       </c>
       <c r="C210">
-        <v>97.69</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E210">
         <v>101.41</v>
@@ -4336,10 +4339,10 @@
         <v>95.56</v>
       </c>
       <c r="C211">
-        <v>98.03</v>
+        <v>98.02</v>
       </c>
       <c r="E211">
-        <v>94.26000000000001</v>
+        <v>94.25</v>
       </c>
       <c r="F211">
         <v>107.28</v>
@@ -4353,10 +4356,10 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C212">
-        <v>100.07</v>
+        <v>100.1</v>
       </c>
       <c r="E212">
-        <v>96.54000000000001</v>
+        <v>96.53</v>
       </c>
       <c r="F212">
         <v>110.04</v>
@@ -4370,7 +4373,7 @@
         <v>103.09</v>
       </c>
       <c r="C213">
-        <v>101.84</v>
+        <v>101.85</v>
       </c>
       <c r="E213">
         <v>100.3</v>
@@ -4387,7 +4390,7 @@
         <v>98.33</v>
       </c>
       <c r="C214">
-        <v>100.84</v>
+        <v>100.85</v>
       </c>
       <c r="E214">
         <v>92.77</v>
@@ -4404,7 +4407,7 @@
         <v>102.77</v>
       </c>
       <c r="C215">
-        <v>101</v>
+        <v>101.02</v>
       </c>
       <c r="E215">
         <v>95.09999999999999</v>
@@ -4421,10 +4424,10 @@
         <v>104.38</v>
       </c>
       <c r="C216">
-        <v>101.63</v>
+        <v>101.64</v>
       </c>
       <c r="E216">
-        <v>103.41</v>
+        <v>103.4</v>
       </c>
       <c r="F216">
         <v>119.78</v>
@@ -4441,7 +4444,7 @@
         <v>100.1</v>
       </c>
       <c r="E217">
-        <v>96.64</v>
+        <v>96.63</v>
       </c>
       <c r="F217">
         <v>113.85</v>
@@ -4455,10 +4458,10 @@
         <v>99.89</v>
       </c>
       <c r="C218">
-        <v>101.21</v>
+        <v>101.18</v>
       </c>
       <c r="E218">
-        <v>98.79000000000001</v>
+        <v>98.78</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4469,10 +4472,10 @@
         <v>96.36</v>
       </c>
       <c r="C219">
-        <v>103.96</v>
+        <v>103.94</v>
       </c>
       <c r="E219">
-        <v>91.79000000000001</v>
+        <v>91.78</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4483,10 +4486,10 @@
         <v>106.24</v>
       </c>
       <c r="C220">
-        <v>102.35</v>
+        <v>102.3</v>
       </c>
       <c r="E220">
-        <v>101.55</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4497,10 +4500,10 @@
         <v>99.48999999999999</v>
       </c>
       <c r="C221">
-        <v>101.4</v>
+        <v>101.39</v>
       </c>
       <c r="E221">
-        <v>100.11</v>
+        <v>100.09</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4511,10 +4514,10 @@
         <v>103.38</v>
       </c>
       <c r="C222">
-        <v>101.97</v>
+        <v>101.92</v>
       </c>
       <c r="E222">
-        <v>101.38</v>
+        <v>101.37</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4525,7 +4528,7 @@
         <v>100.6</v>
       </c>
       <c r="C223">
-        <v>103.13</v>
+        <v>103.11</v>
       </c>
       <c r="E223">
         <v>98.93000000000001</v>
@@ -4539,7 +4542,7 @@
         <v>99.88</v>
       </c>
       <c r="C224">
-        <v>101.96</v>
+        <v>102.01</v>
       </c>
       <c r="E224">
         <v>95.44</v>
@@ -4553,10 +4556,10 @@
         <v>102.76</v>
       </c>
       <c r="C225">
-        <v>101.34</v>
+        <v>101.39</v>
       </c>
       <c r="E225">
-        <v>104.49</v>
+        <v>104.48</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4567,7 +4570,7 @@
         <v>95.97</v>
       </c>
       <c r="C226">
-        <v>100.5</v>
+        <v>100.51</v>
       </c>
       <c r="E226">
         <v>89.08</v>
@@ -4581,7 +4584,7 @@
         <v>104.37</v>
       </c>
       <c r="C227">
-        <v>100.67</v>
+        <v>100.68</v>
       </c>
       <c r="E227">
         <v>105.59</v>
@@ -4609,7 +4612,7 @@
         <v>107.88</v>
       </c>
       <c r="C229">
-        <v>103.03</v>
+        <v>103.04</v>
       </c>
       <c r="E229">
         <v>102.17</v>
@@ -4623,10 +4626,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C230">
-        <v>100.54</v>
+        <v>100.49</v>
       </c>
       <c r="E230">
-        <v>100.96</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4637,10 +4640,10 @@
         <v>92.55</v>
       </c>
       <c r="C231">
-        <v>99.77</v>
+        <v>99.75</v>
       </c>
       <c r="E231">
-        <v>89.17</v>
+        <v>89.16</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4651,7 +4654,7 @@
         <v>104.56</v>
       </c>
       <c r="C232">
-        <v>100.23</v>
+        <v>100.19</v>
       </c>
       <c r="E232">
         <v>103.76</v>
@@ -4665,10 +4668,10 @@
         <v>100.05</v>
       </c>
       <c r="C233">
-        <v>102.68</v>
+        <v>102.65</v>
       </c>
       <c r="E233">
-        <v>97.47</v>
+        <v>97.45999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4679,10 +4682,10 @@
         <v>103.64</v>
       </c>
       <c r="C234">
-        <v>102.88</v>
+        <v>102.81</v>
       </c>
       <c r="E234">
-        <v>101.36</v>
+        <v>101.35</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4693,10 +4696,10 @@
         <v>97.33</v>
       </c>
       <c r="C235">
-        <v>101.12</v>
+        <v>101.09</v>
       </c>
       <c r="E235">
-        <v>95.08</v>
+        <v>95.06999999999999</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4707,10 +4710,10 @@
         <v>101.32</v>
       </c>
       <c r="C236">
-        <v>101.58</v>
+        <v>101.63</v>
       </c>
       <c r="E236">
-        <v>101.4</v>
+        <v>101.44</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4721,10 +4724,10 @@
         <v>104.11</v>
       </c>
       <c r="C237">
-        <v>103.08</v>
+        <v>103.21</v>
       </c>
       <c r="E237">
-        <v>97.67</v>
+        <v>97.73</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4735,7 +4738,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="C238">
-        <v>101.22</v>
+        <v>101.26</v>
       </c>
       <c r="E238">
         <v>93.33</v>
@@ -4749,10 +4752,10 @@
         <v>101.4</v>
       </c>
       <c r="C239">
-        <v>98.31999999999999</v>
+        <v>98.31</v>
       </c>
       <c r="E239">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4763,10 +4766,10 @@
         <v>103.94</v>
       </c>
       <c r="C240">
-        <v>101.42</v>
+        <v>101.43</v>
       </c>
       <c r="E240">
-        <v>100.93</v>
+        <v>100.99</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4777,10 +4780,10 @@
         <v>110.85</v>
       </c>
       <c r="C241">
-        <v>104.84</v>
+        <v>104.87</v>
       </c>
       <c r="E241">
-        <v>100.1</v>
+        <v>100.08</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4791,10 +4794,10 @@
         <v>101.37</v>
       </c>
       <c r="C242">
-        <v>102.73</v>
+        <v>102.67</v>
       </c>
       <c r="E242">
-        <v>101.82</v>
+        <v>101.81</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4805,10 +4808,10 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C243">
-        <v>101.69</v>
+        <v>101.66</v>
       </c>
       <c r="E243">
-        <v>95.05</v>
+        <v>95.04000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4819,10 +4822,10 @@
         <v>105.6</v>
       </c>
       <c r="C244">
-        <v>101.07</v>
+        <v>101.03</v>
       </c>
       <c r="E244">
-        <v>103.52</v>
+        <v>103.51</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4833,10 +4836,10 @@
         <v>96.03</v>
       </c>
       <c r="C245">
-        <v>98.12</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="E245">
-        <v>94.48</v>
+        <v>94.47</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4847,10 +4850,10 @@
         <v>97.40000000000001</v>
       </c>
       <c r="C246">
-        <v>98.31</v>
+        <v>98.22</v>
       </c>
       <c r="E246">
-        <v>93.59</v>
+        <v>93.58</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4861,10 +4864,10 @@
         <v>94.75</v>
       </c>
       <c r="C247">
-        <v>97.34999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="E247">
-        <v>87.59999999999999</v>
+        <v>87.59</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4875,10 +4878,10 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C248">
-        <v>97.97</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="E248">
-        <v>97.40000000000001</v>
+        <v>97.39</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4886,13 +4889,13 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>99.03</v>
+        <v>99</v>
       </c>
       <c r="C249">
-        <v>98.41</v>
+        <v>98.58</v>
       </c>
       <c r="E249">
-        <v>98.55</v>
+        <v>98.54000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4903,10 +4906,10 @@
         <v>98.34999999999999</v>
       </c>
       <c r="C250">
-        <v>100.44</v>
+        <v>100.49</v>
       </c>
       <c r="E250">
-        <v>96.01000000000001</v>
+        <v>96</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4917,10 +4920,10 @@
         <v>104.98</v>
       </c>
       <c r="C251">
-        <v>102.2</v>
+        <v>102.16</v>
       </c>
       <c r="E251">
-        <v>103.42</v>
+        <v>103.41</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4931,10 +4934,10 @@
         <v>103.5</v>
       </c>
       <c r="C252">
-        <v>100.51</v>
+        <v>100.54</v>
       </c>
       <c r="E252">
-        <v>102.75</v>
+        <v>102.74</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4959,10 +4962,10 @@
         <v>98.98999999999999</v>
       </c>
       <c r="C254">
-        <v>101.84</v>
+        <v>101.78</v>
       </c>
       <c r="E254">
-        <v>98.34999999999999</v>
+        <v>98.61</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4973,10 +4976,10 @@
         <v>94.05</v>
       </c>
       <c r="C255">
-        <v>101.61</v>
+        <v>101.59</v>
       </c>
       <c r="E255">
-        <v>93.04000000000001</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4987,10 +4990,10 @@
         <v>108.75</v>
       </c>
       <c r="C256">
-        <v>103.02</v>
+        <v>102.97</v>
       </c>
       <c r="E256">
-        <v>110.88</v>
+        <v>110.87</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5001,10 +5004,10 @@
         <v>100.88</v>
       </c>
       <c r="C257">
-        <v>103.23</v>
+        <v>103.17</v>
       </c>
       <c r="E257">
-        <v>101.58</v>
+        <v>101.57</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5015,10 +5018,10 @@
         <v>100.79</v>
       </c>
       <c r="C258">
-        <v>101.51</v>
+        <v>101.4</v>
       </c>
       <c r="E258">
-        <v>102.94</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5029,10 +5032,10 @@
         <v>100.56</v>
       </c>
       <c r="C259">
-        <v>104.36</v>
+        <v>104.27</v>
       </c>
       <c r="E259">
-        <v>103.17</v>
+        <v>103.16</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5040,13 +5043,27 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>102.63</v>
+        <v>102.61</v>
       </c>
       <c r="C260">
-        <v>103.38</v>
+        <v>103.39</v>
       </c>
       <c r="E260">
-        <v>106.08</v>
+        <v>108.41</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261">
+        <v>103.2</v>
+      </c>
+      <c r="C261">
+        <v>101.88</v>
+      </c>
+      <c r="E261">
+        <v>110.52</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
   <si>
     <t>Serie</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2417,7 +2420,7 @@
         <v>79.64</v>
       </c>
       <c r="C111">
-        <v>87.36</v>
+        <v>87.37</v>
       </c>
       <c r="D111">
         <v>90.40000000000001</v>
@@ -2437,7 +2440,7 @@
         <v>89.86</v>
       </c>
       <c r="C112">
-        <v>86.87</v>
+        <v>86.88</v>
       </c>
       <c r="D112">
         <v>101.99</v>
@@ -2457,7 +2460,7 @@
         <v>85.39</v>
       </c>
       <c r="C113">
-        <v>86.48</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="D113">
         <v>96.93000000000001</v>
@@ -2474,7 +2477,7 @@
         <v>86.39</v>
       </c>
       <c r="C114">
-        <v>87</v>
+        <v>87.01000000000001</v>
       </c>
       <c r="D114">
         <v>98.06</v>
@@ -2491,7 +2494,7 @@
         <v>87.77</v>
       </c>
       <c r="C115">
-        <v>88.93000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="D115">
         <v>99.63</v>
@@ -2542,7 +2545,7 @@
         <v>87.95</v>
       </c>
       <c r="C118">
-        <v>90.26000000000001</v>
+        <v>90.27</v>
       </c>
       <c r="D118">
         <v>99.84</v>
@@ -2559,7 +2562,7 @@
         <v>94.76000000000001</v>
       </c>
       <c r="C119">
-        <v>90.81999999999999</v>
+        <v>90.83</v>
       </c>
       <c r="D119">
         <v>107.56</v>
@@ -2593,7 +2596,7 @@
         <v>94.95</v>
       </c>
       <c r="C121">
-        <v>88.23</v>
+        <v>88.23999999999999</v>
       </c>
       <c r="D121">
         <v>107.78</v>
@@ -2627,7 +2630,7 @@
         <v>81.47</v>
       </c>
       <c r="C123">
-        <v>89.34</v>
+        <v>89.34999999999999</v>
       </c>
       <c r="D123">
         <v>92.48</v>
@@ -2644,7 +2647,7 @@
         <v>85.89</v>
       </c>
       <c r="C124">
-        <v>82.76000000000001</v>
+        <v>82.77</v>
       </c>
       <c r="D124">
         <v>97.48999999999999</v>
@@ -2695,7 +2698,7 @@
         <v>90.27</v>
       </c>
       <c r="C127">
-        <v>91.43000000000001</v>
+        <v>91.44</v>
       </c>
       <c r="D127">
         <v>102.47</v>
@@ -2746,7 +2749,7 @@
         <v>88.03</v>
       </c>
       <c r="C130">
-        <v>90.84999999999999</v>
+        <v>90.86</v>
       </c>
       <c r="D130">
         <v>99.93000000000001</v>
@@ -2797,7 +2800,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C133">
-        <v>91.95</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D133">
         <v>111.82</v>
@@ -2814,7 +2817,7 @@
         <v>92.77</v>
       </c>
       <c r="C134">
-        <v>95.06999999999999</v>
+        <v>95.08</v>
       </c>
       <c r="D134">
         <v>105.3</v>
@@ -2834,7 +2837,7 @@
         <v>82.94</v>
       </c>
       <c r="C135">
-        <v>90.42</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="D135">
         <v>94.14</v>
@@ -2854,7 +2857,7 @@
         <v>97.93000000000001</v>
       </c>
       <c r="C136">
-        <v>93.48999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="D136">
         <v>111.16</v>
@@ -2874,7 +2877,7 @@
         <v>91.51000000000001</v>
       </c>
       <c r="C137">
-        <v>93.20999999999999</v>
+        <v>93.22</v>
       </c>
       <c r="D137">
         <v>103.87</v>
@@ -2894,7 +2897,7 @@
         <v>93.68000000000001</v>
       </c>
       <c r="C138">
-        <v>92.95999999999999</v>
+        <v>92.97</v>
       </c>
       <c r="D138">
         <v>106.33</v>
@@ -3014,7 +3017,7 @@
         <v>97.45999999999999</v>
       </c>
       <c r="C144">
-        <v>94.31999999999999</v>
+        <v>94.33</v>
       </c>
       <c r="D144">
         <v>110.63</v>
@@ -3094,7 +3097,7 @@
         <v>100.09</v>
       </c>
       <c r="C148">
-        <v>96.09</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="D148">
         <v>113.61</v>
@@ -3114,7 +3117,7 @@
         <v>95.31</v>
       </c>
       <c r="C149">
-        <v>97.37</v>
+        <v>97.38</v>
       </c>
       <c r="D149">
         <v>108.19</v>
@@ -3134,7 +3137,7 @@
         <v>97.58</v>
       </c>
       <c r="C150">
-        <v>96.81</v>
+        <v>96.81999999999999</v>
       </c>
       <c r="D150">
         <v>110.76</v>
@@ -3194,7 +3197,7 @@
         <v>98.22</v>
       </c>
       <c r="C153">
-        <v>97.84999999999999</v>
+        <v>97.86</v>
       </c>
       <c r="D153">
         <v>111.49</v>
@@ -3214,7 +3217,7 @@
         <v>92.5</v>
       </c>
       <c r="C154">
-        <v>97.26000000000001</v>
+        <v>97.27</v>
       </c>
       <c r="D154">
         <v>105</v>
@@ -3254,7 +3257,7 @@
         <v>100.21</v>
       </c>
       <c r="C156">
-        <v>97.95</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="D156">
         <v>113.75</v>
@@ -3274,7 +3277,7 @@
         <v>102.05</v>
       </c>
       <c r="C157">
-        <v>97.13</v>
+        <v>97.14</v>
       </c>
       <c r="D157">
         <v>115.84</v>
@@ -3294,7 +3297,7 @@
         <v>99.87</v>
       </c>
       <c r="C158">
-        <v>101.25</v>
+        <v>101.26</v>
       </c>
       <c r="D158">
         <v>113.36</v>
@@ -3354,7 +3357,7 @@
         <v>96.81</v>
       </c>
       <c r="C161">
-        <v>97.11</v>
+        <v>97.12</v>
       </c>
       <c r="D161">
         <v>109.89</v>
@@ -3374,7 +3377,7 @@
         <v>97.84999999999999</v>
       </c>
       <c r="C162">
-        <v>97.25</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="D162">
         <v>111.07</v>
@@ -3394,7 +3397,7 @@
         <v>96.66</v>
       </c>
       <c r="C163">
-        <v>99.05</v>
+        <v>99.06</v>
       </c>
       <c r="D163">
         <v>109.72</v>
@@ -3414,7 +3417,7 @@
         <v>100.1</v>
       </c>
       <c r="C164">
-        <v>101.49</v>
+        <v>101.5</v>
       </c>
       <c r="D164">
         <v>113.62</v>
@@ -3434,7 +3437,7 @@
         <v>100.98</v>
       </c>
       <c r="C165">
-        <v>101.02</v>
+        <v>101.03</v>
       </c>
       <c r="D165">
         <v>114.62</v>
@@ -3454,7 +3457,7 @@
         <v>95.38</v>
       </c>
       <c r="C166">
-        <v>99.88</v>
+        <v>99.89</v>
       </c>
       <c r="D166">
         <v>108.26</v>
@@ -3474,7 +3477,7 @@
         <v>104.05</v>
       </c>
       <c r="C167">
-        <v>100.62</v>
+        <v>100.63</v>
       </c>
       <c r="D167">
         <v>118.11</v>
@@ -3534,7 +3537,7 @@
         <v>98.51000000000001</v>
       </c>
       <c r="C170">
-        <v>99.91</v>
+        <v>99.92</v>
       </c>
       <c r="D170">
         <v>111.81</v>
@@ -3594,7 +3597,7 @@
         <v>100.04</v>
       </c>
       <c r="C173">
-        <v>101.18</v>
+        <v>101.17</v>
       </c>
       <c r="D173">
         <v>111.87</v>
@@ -3634,7 +3637,7 @@
         <v>99.23999999999999</v>
       </c>
       <c r="C175">
-        <v>101.57</v>
+        <v>101.56</v>
       </c>
       <c r="D175">
         <v>112.24</v>
@@ -3654,7 +3657,7 @@
         <v>98.70999999999999</v>
       </c>
       <c r="C176">
-        <v>99.64</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="D176">
         <v>111.12</v>
@@ -3714,7 +3717,7 @@
         <v>104.07</v>
       </c>
       <c r="C179">
-        <v>99.81999999999999</v>
+        <v>99.83</v>
       </c>
       <c r="D179">
         <v>117.74</v>
@@ -3754,7 +3757,7 @@
         <v>105.67</v>
       </c>
       <c r="C181">
-        <v>100.26</v>
+        <v>100.25</v>
       </c>
       <c r="D181">
         <v>120.88</v>
@@ -3774,7 +3777,7 @@
         <v>101.38</v>
       </c>
       <c r="C182">
-        <v>103.54</v>
+        <v>103.55</v>
       </c>
       <c r="D182">
         <v>118.76</v>
@@ -3814,7 +3817,7 @@
         <v>103.53</v>
       </c>
       <c r="C184">
-        <v>99.14</v>
+        <v>99.13</v>
       </c>
       <c r="D184">
         <v>114.7</v>
@@ -3854,7 +3857,7 @@
         <v>101.47</v>
       </c>
       <c r="C186">
-        <v>101.49</v>
+        <v>101.48</v>
       </c>
       <c r="D186">
         <v>114.42</v>
@@ -3874,7 +3877,7 @@
         <v>101.45</v>
       </c>
       <c r="C187">
-        <v>103.91</v>
+        <v>103.9</v>
       </c>
       <c r="D187">
         <v>114.42</v>
@@ -3934,7 +3937,7 @@
         <v>99.06999999999999</v>
       </c>
       <c r="C190">
-        <v>100.81</v>
+        <v>100.82</v>
       </c>
       <c r="D190">
         <v>110.36</v>
@@ -3994,7 +3997,7 @@
         <v>104.93</v>
       </c>
       <c r="C193">
-        <v>99.43000000000001</v>
+        <v>99.45</v>
       </c>
       <c r="D193">
         <v>116.8</v>
@@ -4014,7 +4017,7 @@
         <v>96.95</v>
       </c>
       <c r="C194">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="D194">
         <v>109.58</v>
@@ -4054,7 +4057,7 @@
         <v>107.11</v>
       </c>
       <c r="C196">
-        <v>102.52</v>
+        <v>102.53</v>
       </c>
       <c r="D196">
         <v>119.02</v>
@@ -4094,7 +4097,7 @@
         <v>101.24</v>
       </c>
       <c r="C198">
-        <v>99.41</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D198">
         <v>112.08</v>
@@ -4114,7 +4117,7 @@
         <v>97.15000000000001</v>
       </c>
       <c r="C199">
-        <v>99.29000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D199">
         <v>110.25</v>
@@ -4134,7 +4137,7 @@
         <v>96.56</v>
       </c>
       <c r="C200">
-        <v>98.23999999999999</v>
+        <v>98.22</v>
       </c>
       <c r="D200">
         <v>107.84</v>
@@ -4174,7 +4177,7 @@
         <v>97.59</v>
       </c>
       <c r="C202">
-        <v>98.68000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="D202">
         <v>110.04</v>
@@ -4194,7 +4197,7 @@
         <v>98.47</v>
       </c>
       <c r="C203">
-        <v>97.09</v>
+        <v>97.08</v>
       </c>
       <c r="D203">
         <v>108.51</v>
@@ -4234,7 +4237,7 @@
         <v>104.28</v>
       </c>
       <c r="C205">
-        <v>98.54000000000001</v>
+        <v>98.55</v>
       </c>
       <c r="D205">
         <v>117.18</v>
@@ -4254,7 +4257,7 @@
         <v>96.33</v>
       </c>
       <c r="C206">
-        <v>98.62</v>
+        <v>98.63</v>
       </c>
       <c r="E206">
         <v>94.28</v>
@@ -4288,7 +4291,7 @@
         <v>97.31</v>
       </c>
       <c r="C208">
-        <v>91.20999999999999</v>
+        <v>91.23</v>
       </c>
       <c r="E208">
         <v>104.26</v>
@@ -4305,7 +4308,7 @@
         <v>92.76000000000001</v>
       </c>
       <c r="C209">
-        <v>97.31</v>
+        <v>97.3</v>
       </c>
       <c r="E209">
         <v>91.47</v>
@@ -4356,7 +4359,7 @@
         <v>98.90000000000001</v>
       </c>
       <c r="C212">
-        <v>100.1</v>
+        <v>100.07</v>
       </c>
       <c r="E212">
         <v>96.53</v>
@@ -4373,7 +4376,7 @@
         <v>103.09</v>
       </c>
       <c r="C213">
-        <v>101.85</v>
+        <v>101.86</v>
       </c>
       <c r="E213">
         <v>100.3</v>
@@ -4390,7 +4393,7 @@
         <v>98.33</v>
       </c>
       <c r="C214">
-        <v>100.85</v>
+        <v>100.88</v>
       </c>
       <c r="E214">
         <v>92.77</v>
@@ -4407,7 +4410,7 @@
         <v>102.77</v>
       </c>
       <c r="C215">
-        <v>101.02</v>
+        <v>101.01</v>
       </c>
       <c r="E215">
         <v>95.09999999999999</v>
@@ -4424,7 +4427,7 @@
         <v>104.38</v>
       </c>
       <c r="C216">
-        <v>101.64</v>
+        <v>101.65</v>
       </c>
       <c r="E216">
         <v>103.4</v>
@@ -4458,7 +4461,7 @@
         <v>99.89</v>
       </c>
       <c r="C218">
-        <v>101.18</v>
+        <v>101.21</v>
       </c>
       <c r="E218">
         <v>98.78</v>
@@ -4486,7 +4489,7 @@
         <v>106.24</v>
       </c>
       <c r="C220">
-        <v>102.3</v>
+        <v>102.31</v>
       </c>
       <c r="E220">
         <v>101.54</v>
@@ -4500,7 +4503,7 @@
         <v>99.48999999999999</v>
       </c>
       <c r="C221">
-        <v>101.39</v>
+        <v>101.38</v>
       </c>
       <c r="E221">
         <v>100.09</v>
@@ -4514,7 +4517,7 @@
         <v>103.38</v>
       </c>
       <c r="C222">
-        <v>101.92</v>
+        <v>101.93</v>
       </c>
       <c r="E222">
         <v>101.37</v>
@@ -4528,7 +4531,7 @@
         <v>100.6</v>
       </c>
       <c r="C223">
-        <v>103.11</v>
+        <v>103.1</v>
       </c>
       <c r="E223">
         <v>98.93000000000001</v>
@@ -4542,7 +4545,7 @@
         <v>99.88</v>
       </c>
       <c r="C224">
-        <v>102.01</v>
+        <v>101.95</v>
       </c>
       <c r="E224">
         <v>95.44</v>
@@ -4556,7 +4559,7 @@
         <v>102.76</v>
       </c>
       <c r="C225">
-        <v>101.39</v>
+        <v>101.36</v>
       </c>
       <c r="E225">
         <v>104.48</v>
@@ -4570,7 +4573,7 @@
         <v>95.97</v>
       </c>
       <c r="C226">
-        <v>100.51</v>
+        <v>100.57</v>
       </c>
       <c r="E226">
         <v>89.08</v>
@@ -4584,7 +4587,7 @@
         <v>104.37</v>
       </c>
       <c r="C227">
-        <v>100.68</v>
+        <v>100.69</v>
       </c>
       <c r="E227">
         <v>105.59</v>
@@ -4598,7 +4601,7 @@
         <v>106.55</v>
       </c>
       <c r="C228">
-        <v>104.59</v>
+        <v>104.6</v>
       </c>
       <c r="E228">
         <v>102.71</v>
@@ -4626,7 +4629,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="C230">
-        <v>100.49</v>
+        <v>100.54</v>
       </c>
       <c r="E230">
         <v>100.95</v>
@@ -4668,7 +4671,7 @@
         <v>100.05</v>
       </c>
       <c r="C233">
-        <v>102.65</v>
+        <v>102.62</v>
       </c>
       <c r="E233">
         <v>97.45999999999999</v>
@@ -4696,7 +4699,7 @@
         <v>97.33</v>
       </c>
       <c r="C235">
-        <v>101.09</v>
+        <v>101.07</v>
       </c>
       <c r="E235">
         <v>95.06999999999999</v>
@@ -4710,7 +4713,7 @@
         <v>101.32</v>
       </c>
       <c r="C236">
-        <v>101.63</v>
+        <v>101.58</v>
       </c>
       <c r="E236">
         <v>101.44</v>
@@ -4724,7 +4727,7 @@
         <v>104.11</v>
       </c>
       <c r="C237">
-        <v>103.21</v>
+        <v>103.13</v>
       </c>
       <c r="E237">
         <v>97.73</v>
@@ -4738,7 +4741,7 @@
         <v>96.45999999999999</v>
       </c>
       <c r="C238">
-        <v>101.26</v>
+        <v>101.34</v>
       </c>
       <c r="E238">
         <v>93.33</v>
@@ -4752,7 +4755,7 @@
         <v>101.4</v>
       </c>
       <c r="C239">
-        <v>98.31</v>
+        <v>98.34</v>
       </c>
       <c r="E239">
         <v>99.89</v>
@@ -4766,7 +4769,7 @@
         <v>103.94</v>
       </c>
       <c r="C240">
-        <v>101.43</v>
+        <v>101.44</v>
       </c>
       <c r="E240">
         <v>100.99</v>
@@ -4780,7 +4783,7 @@
         <v>110.85</v>
       </c>
       <c r="C241">
-        <v>104.87</v>
+        <v>104.85</v>
       </c>
       <c r="E241">
         <v>100.08</v>
@@ -4794,7 +4797,7 @@
         <v>101.37</v>
       </c>
       <c r="C242">
-        <v>102.67</v>
+        <v>102.72</v>
       </c>
       <c r="E242">
         <v>101.81</v>
@@ -4808,7 +4811,7 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C243">
-        <v>101.66</v>
+        <v>101.67</v>
       </c>
       <c r="E243">
         <v>95.04000000000001</v>
@@ -4836,7 +4839,7 @@
         <v>96.03</v>
       </c>
       <c r="C245">
-        <v>98.06999999999999</v>
+        <v>98.06</v>
       </c>
       <c r="E245">
         <v>94.47</v>
@@ -4850,7 +4853,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="C246">
-        <v>98.22</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="E246">
         <v>93.58</v>
@@ -4864,7 +4867,7 @@
         <v>94.75</v>
       </c>
       <c r="C247">
-        <v>97.3</v>
+        <v>97.28</v>
       </c>
       <c r="E247">
         <v>87.59</v>
@@ -4878,7 +4881,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="C248">
-        <v>98.01000000000001</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="E248">
         <v>97.39</v>
@@ -4892,7 +4895,7 @@
         <v>99</v>
       </c>
       <c r="C249">
-        <v>98.58</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="E249">
         <v>98.54000000000001</v>
@@ -4903,10 +4906,10 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>98.34999999999999</v>
+        <v>98.34</v>
       </c>
       <c r="C250">
-        <v>100.49</v>
+        <v>100.62</v>
       </c>
       <c r="E250">
         <v>96</v>
@@ -4920,7 +4923,7 @@
         <v>104.98</v>
       </c>
       <c r="C251">
-        <v>102.16</v>
+        <v>102.21</v>
       </c>
       <c r="E251">
         <v>103.41</v>
@@ -4948,7 +4951,7 @@
         <v>106.86</v>
       </c>
       <c r="C253">
-        <v>100.49</v>
+        <v>100.5</v>
       </c>
       <c r="E253">
         <v>104.91</v>
@@ -4962,7 +4965,7 @@
         <v>98.98999999999999</v>
       </c>
       <c r="C254">
-        <v>101.78</v>
+        <v>101.83</v>
       </c>
       <c r="E254">
         <v>98.61</v>
@@ -4976,7 +4979,7 @@
         <v>94.05</v>
       </c>
       <c r="C255">
-        <v>101.59</v>
+        <v>101.58</v>
       </c>
       <c r="E255">
         <v>93.03</v>
@@ -5004,7 +5007,7 @@
         <v>100.88</v>
       </c>
       <c r="C257">
-        <v>103.17</v>
+        <v>103.14</v>
       </c>
       <c r="E257">
         <v>101.57</v>
@@ -5032,7 +5035,7 @@
         <v>100.56</v>
       </c>
       <c r="C259">
-        <v>104.27</v>
+        <v>104.25</v>
       </c>
       <c r="E259">
         <v>103.16</v>
@@ -5046,7 +5049,7 @@
         <v>102.61</v>
       </c>
       <c r="C260">
-        <v>103.39</v>
+        <v>103.35</v>
       </c>
       <c r="E260">
         <v>108.41</v>
@@ -5057,13 +5060,24 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>103.2</v>
+        <v>103.65</v>
       </c>
       <c r="C261">
-        <v>101.88</v>
+        <v>102.17</v>
       </c>
       <c r="E261">
         <v>110.52</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262">
+        <v>97.61</v>
+      </c>
+      <c r="C262">
+        <v>100.08</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Mensual.xlsx
@@ -5079,6 +5079,9 @@
       <c r="C262">
         <v>100.08</v>
       </c>
+      <c r="E262">
+        <v>106.44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
